--- a/outputs/ML_Results/carown_LR_new/Düsseldorf.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Düsseldorf.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ8" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ18" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ24" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ4" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ12" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ5" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ9" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.775229365525214</v>
+        <v>-1.385898063531405</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1819044666878437</v>
+        <v>0.3073096722335156</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.05835216764292358</v>
+        <v>-0.1584599417156271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8395835791427851</v>
+        <v>0.5919352540141923</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5480296891634331</v>
+        <v>-0.6580971270274607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009212696790241757</v>
+        <v>0.002171930471472003</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5564279901979848</v>
+        <v>-0.6749189857023818</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01136163287619588</v>
+        <v>0.002664354366214172</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4040389135098322</v>
+        <v>-0.4862898337478547</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2340183727538303</v>
+        <v>0.1581563418058686</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2210635832613995</v>
+        <v>0.2352082917204368</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1204487201457342</v>
+        <v>0.1054625787558913</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005175940452615168</v>
+        <v>0.0005111064802268111</v>
       </c>
       <c r="C8" t="n">
-        <v>1.123723670749677e-26</v>
+        <v>3.238756878011389e-25</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008293097206257965</v>
+        <v>0.005734763217979026</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08124337056293594</v>
+        <v>0.231032936422585</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05563861606977118</v>
+        <v>0.05192160763171172</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6813718111538836</v>
+        <v>0.7063353320743004</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6228351960318886</v>
+        <v>0.6031550696599838</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009033287447989321</v>
+        <v>0.001586334684263136</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2699226471492588</v>
+        <v>0.29383376281674</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2612116748530631</v>
+        <v>0.2277837317626863</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.501166181120419e-05</v>
+        <v>-5.082462901902752e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03211623031648221</v>
+        <v>0.05053944129298563</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.305086814433462e-08</v>
+        <v>4.092671780336692e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3732362360607734</v>
+        <v>0.2839547409145917</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06655438330768471</v>
+        <v>0.05266871209748795</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2216708171902443</v>
+        <v>0.3451817344068016</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08762890100447958</v>
+        <v>0.1089616787371011</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01806590306420188</v>
+        <v>0.005153384214858454</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.795230692789372</v>
+        <v>2.007897702492762</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08151577661929237</v>
+        <v>0.2261894145951587</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.003805105153804032</v>
+        <v>-0.004227338806563671</v>
       </c>
       <c r="C18" t="n">
-        <v>0.620070234014074</v>
+        <v>0.5889829825857615</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004304366424755435</v>
+        <v>0.002655523809901014</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6145069760555687</v>
+        <v>0.7589210337680647</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2391488841434968</v>
+        <v>-0.03899441428300512</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7331789215887041</v>
+        <v>0.9566400111385462</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4968675973296378</v>
+        <v>-0.6207525718228769</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3974525845273719</v>
+        <v>0.2997534492512512</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001315431517125002</v>
+        <v>-9.714450968661278e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117389992368981</v>
+        <v>0.257992868976099</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.906077447189753</v>
+        <v>-1.72073673386981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.151768538646148</v>
+        <v>0.2036447927650922</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.05949686978142705</v>
+        <v>-0.05895545774152331</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8359039540955733</v>
+        <v>0.8378362895098794</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.585378295369744</v>
+        <v>-0.5147595545448761</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005206619466001506</v>
+        <v>0.01493527834010783</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7535942422231727</v>
+        <v>-0.6516183379322129</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0006400902673122611</v>
+        <v>0.003262192654090459</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4811265447631345</v>
+        <v>-0.5002954428015263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1733142110046474</v>
+        <v>0.1501122834887444</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2062723745550977</v>
+        <v>0.1932341848175694</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1464478896362746</v>
+        <v>0.1735956781485594</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004993467644562953</v>
+        <v>0.000495974646630567</v>
       </c>
       <c r="C8" t="n">
-        <v>2.02987627112498e-25</v>
+        <v>1.144101378237518e-24</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01059453019076381</v>
+        <v>0.009271987604353479</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02552804588505031</v>
+        <v>0.05445629315417076</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.00406531305480267</v>
+        <v>0.02575645153571864</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9761653525451502</v>
+        <v>0.8518912276789096</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7752189556332606</v>
+        <v>0.5993596804683301</v>
       </c>
       <c r="C11" t="n">
-        <v>4.12671677846757e-05</v>
+        <v>0.001716322290725389</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3453515828874775</v>
+        <v>0.1674286621596619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1520271924194672</v>
+        <v>0.4973926155061761</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.16400202377049e-05</v>
+        <v>-5.461279168369184e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04765995150191545</v>
+        <v>0.03658679070350362</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.719679347529717e-08</v>
+        <v>3.561390515920484e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6415197506711359</v>
+        <v>0.3507763727947272</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03994125044006519</v>
+        <v>0.07333603880530508</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4704111957438274</v>
+        <v>0.1893619854256897</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1056879676439468</v>
+        <v>0.1034680096280342</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005205823368446616</v>
+        <v>0.007646213447134936</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.818377123562709</v>
+        <v>2.66197128501451</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08014292918075157</v>
+        <v>0.1085718001512893</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.003439638803393503</v>
+        <v>-0.006358642135598268</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6560156339398353</v>
+        <v>0.4119717137629295</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003707633587498832</v>
+        <v>0.00495219449879467</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6626992084109651</v>
+        <v>0.5678592854814178</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02373484263689307</v>
+        <v>0.195458093755523</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9734170211869508</v>
+        <v>0.7844275500265823</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.5402533207890239</v>
+        <v>-0.7867755207826936</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3554381461325696</v>
+        <v>0.1870887548255168</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-5.372267860647951e-05</v>
+        <v>-8.219028905941083e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5268044994713398</v>
+        <v>0.3333912973139247</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.295143449829758</v>
+        <v>-1.33102235227104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3378235629623924</v>
+        <v>0.3196458290938976</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.187614770075307</v>
+        <v>0.02747724359139685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5176612221023394</v>
+        <v>0.9244382044921509</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5378374788458984</v>
+        <v>-0.5881733279704743</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01176103699120419</v>
+        <v>0.005419626871352314</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6321303163835952</v>
+        <v>-0.5814011102234685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004484145004666022</v>
+        <v>0.008640641927540656</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5061516952616751</v>
+        <v>-0.3948794501912248</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1436806716402207</v>
+        <v>0.2518723895190288</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2740560110398639</v>
+        <v>0.2300083447393188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05999638464127987</v>
+        <v>0.1059549360686682</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004935682460678312</v>
+        <v>0.0005094717473462389</v>
       </c>
       <c r="C8" t="n">
-        <v>2.935586835593041e-24</v>
+        <v>1.022540928523669e-25</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008632175122980977</v>
+        <v>0.008618661622063015</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07251860297759898</v>
+        <v>0.07240804362222128</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08886885693551901</v>
+        <v>0.01782682093015049</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5193748472566784</v>
+        <v>0.8966320492683516</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6703842945547244</v>
+        <v>0.7036409559708782</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004725349929863436</v>
+        <v>0.0001667806275227475</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3199915000215459</v>
+        <v>0.3207715734171722</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1934345717851632</v>
+        <v>0.1819582305350088</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.515406774970173e-05</v>
+        <v>-7.872225978156393e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07972753131040358</v>
+        <v>0.003143850002803277</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.996591008124997e-08</v>
+        <v>3.981959586159331e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.595683775878534</v>
+        <v>0.2961661488759997</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03614767124701266</v>
+        <v>0.04247067600166225</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5092620347712984</v>
+        <v>0.4386777586614637</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1182661535444745</v>
+        <v>0.09878541210522128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001957740557766327</v>
+        <v>0.008854638304452246</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.834975352082004</v>
+        <v>1.431884617739856</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2673912178550882</v>
+        <v>0.3776772217714708</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.004226138079503554</v>
+        <v>-0.003672466414853022</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5851212357266945</v>
+        <v>0.6342419016033525</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.001707153811282087</v>
+        <v>-0.0004929016116539195</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8437769135659544</v>
+        <v>0.954085994326915</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2698186774917697</v>
+        <v>0.1737635625319351</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7018441941387186</v>
+        <v>0.8061252678760136</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.05982212969595768</v>
+        <v>-0.1650987541960899</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9215000686150221</v>
+        <v>0.7822867345552706</v>
       </c>
     </row>
     <row r="22">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-4.62472699343853e-05</v>
+        <v>-4.481828737078012e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5851877307977474</v>
+        <v>0.5994531137723111</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.666551432687909</v>
+        <v>-0.9760611861879011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2142865985585093</v>
+        <v>0.4682618026514753</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1018290844954824</v>
+        <v>-0.2587733597684467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7290481116217316</v>
+        <v>0.3824145480275066</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5301905739003733</v>
+        <v>-0.4172425171197252</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01303702314090459</v>
+        <v>0.0546120747173387</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5345011113183633</v>
+        <v>-0.5095998719410046</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01701208384910654</v>
+        <v>0.02466211707434343</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.28126352114557</v>
+        <v>-0.3355647610286263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4336466515736134</v>
+        <v>0.3575642206997794</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2715016770501925</v>
+        <v>0.3408745472060833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06522382383570535</v>
+        <v>0.02636463542510667</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004816112926167667</v>
+        <v>0.0005083872530350968</v>
       </c>
       <c r="C8" t="n">
-        <v>6.464149866442023e-24</v>
+        <v>1.014440004065091e-25</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007252739361524255</v>
+        <v>0.008028950482138019</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1258290541867107</v>
+        <v>0.0904541500472175</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04494953018917096</v>
+        <v>-0.03002047937690401</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7426279673509349</v>
+        <v>0.8274830299273328</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6264315489013561</v>
+        <v>0.6696138449732231</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009063361725483803</v>
+        <v>0.0003586138847544068</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2643841708040447</v>
+        <v>0.2514748556032073</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2738606324880526</v>
+        <v>0.2933885168816552</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.521265799714872e-05</v>
+        <v>-4.789244196422021e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0122527094477245</v>
+        <v>0.06283203658282675</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.825917572235284e-08</v>
+        <v>1.997557512053734e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4454684747509965</v>
+        <v>0.589326431769281</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08078641403163536</v>
+        <v>0.03204402043584937</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1493985938829364</v>
+        <v>0.5574554123976135</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1090068147206108</v>
+        <v>0.0986683827317943</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004680074094245495</v>
+        <v>0.008487315355504219</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.454630040477415</v>
+        <v>1.99485304540244</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1333819688965638</v>
+        <v>0.2196316778768014</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0009534103032847544</v>
+        <v>-0.006787538296717381</v>
       </c>
       <c r="C18" t="n">
-        <v>0.90141873258017</v>
+        <v>0.3731461915883839</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002532191615508416</v>
+        <v>-0.002824516226869781</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7673388432309413</v>
+        <v>0.7424356801171128</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.212722867020539</v>
+        <v>-0.3504490251912071</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7658708112243534</v>
+        <v>0.6204839069585327</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.7840711512285968</v>
+        <v>-0.2526138871323216</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1877770944285828</v>
+        <v>0.6724822117128936</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001112986753820865</v>
+        <v>-4.520285229278334e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1851461846279864</v>
+        <v>0.5909318019442554</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7993698599670183</v>
+        <v>-1.684405569018512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5583912889423071</v>
+        <v>0.2114534950462043</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3179874612719439</v>
+        <v>-0.09822469999399909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.290363803514237</v>
+        <v>0.7452368233015945</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4628596011509761</v>
+        <v>-0.6097852170840092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03506121030325079</v>
+        <v>0.00489404106769202</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.565829197980131</v>
+        <v>-0.6143673715878983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0132478927649581</v>
+        <v>0.00664881409548603</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2828647767058148</v>
+        <v>-0.4532951545924789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4645498194458505</v>
+        <v>0.2040729417709015</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3255281921093209</v>
+        <v>0.2299311741903254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03449971496514665</v>
+        <v>0.1263482564715797</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004963030352999707</v>
+        <v>0.0004913117641773527</v>
       </c>
       <c r="C8" t="n">
-        <v>2.694937140920197e-24</v>
+        <v>1.500865562294552e-23</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00607424281442887</v>
+        <v>0.01085444069902781</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2007980032115277</v>
+        <v>0.02529910719176467</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.04523498687204099</v>
+        <v>0.04681322963610052</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7450627948332309</v>
+        <v>0.7353625383767353</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6590741065050961</v>
+        <v>0.6913202390267184</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004808678936110658</v>
+        <v>0.0003897680721754161</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2308940684404681</v>
+        <v>0.2014674841507138</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3379615064893291</v>
+        <v>0.421172859339109</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.547235297439832e-05</v>
+        <v>-5.375518951764262e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07677167372839186</v>
+        <v>0.03809500094140237</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.443756146797794e-09</v>
+        <v>1.897246297890211e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.822090854612194</v>
+        <v>0.9594505574895388</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0233120299841234</v>
+        <v>0.02779051182778626</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6760870838159119</v>
+        <v>0.6198895221265127</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0977910076481974</v>
+        <v>0.1021328105728342</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01074715155142114</v>
+        <v>0.007296746927331088</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.325478801665668</v>
+        <v>2.660459398378445</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4187763947890759</v>
+        <v>0.1022939658315801</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008079876518177738</v>
+        <v>-0.009487790428231571</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3001375519394078</v>
+        <v>0.2180372375271596</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0001507727549860656</v>
+        <v>0.005363528651820103</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9861186867579909</v>
+        <v>0.5368778715837876</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.3721467639784219</v>
+        <v>0.1027476677450949</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5982588180872541</v>
+        <v>0.8851381645962645</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.5804992855712526</v>
+        <v>-0.7294378738157119</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3356338514423223</v>
+        <v>0.2241195600528169</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.619298649434692e-05</v>
+        <v>-1.308724573058042e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8499630902492248</v>
+        <v>0.8775610450816189</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9534998350054804</v>
+        <v>-1.715196034323341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4778211537111899</v>
+        <v>0.196387273818959</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09898220135413202</v>
+        <v>-0.1772944723404469</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7346372576667231</v>
+        <v>0.5354314824246558</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6494543959009867</v>
+        <v>-0.5281246789949524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002141896774322806</v>
+        <v>0.01196968868959979</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6669825113657535</v>
+        <v>-0.6176421535242675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002701744087065563</v>
+        <v>0.005046743923929189</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5706990036161694</v>
+        <v>-0.2864172322650856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1004625192178016</v>
+        <v>0.4148069029641144</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1641465368500029</v>
+        <v>0.246077395026097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2494809194249705</v>
+        <v>0.08348487118875753</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004923232371384335</v>
+        <v>0.000507276057970832</v>
       </c>
       <c r="C8" t="n">
-        <v>8.517116845290368e-24</v>
+        <v>1.186459471673652e-25</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007760649506488157</v>
+        <v>0.00821349302230445</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1042418415695004</v>
+        <v>0.08226635552550306</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007841661481650121</v>
+        <v>-0.02060951615265066</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9545985532577912</v>
+        <v>0.8803500343207223</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6705042410896934</v>
+        <v>0.7057198089873986</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003850486989008797</v>
+        <v>0.0001905226919381959</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2397161712912707</v>
+        <v>0.3134597256819833</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3214920027179439</v>
+        <v>0.1923557923091055</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.426866665479669e-05</v>
+        <v>-5.27018006268677e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01493116871419788</v>
+        <v>0.04243977546295</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.547080819254692e-08</v>
+        <v>1.783291547079295e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5032349213235943</v>
+        <v>0.636246456288174</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02422506282615189</v>
+        <v>0.05114382661548864</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6610621903156909</v>
+        <v>0.3523564790923945</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08888131851151874</v>
+        <v>0.08541151300603433</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01979259967971352</v>
+        <v>0.02149422464970972</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.510266098032349</v>
+        <v>1.813315562151124</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3550596599912789</v>
+        <v>0.2582682949596101</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008851800549817657</v>
+        <v>-0.005344226186974549</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2485433848183339</v>
+        <v>0.4824175666446301</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001895050308624706</v>
+        <v>0.005184695124044494</v>
       </c>
       <c r="C19" t="n">
-        <v>0.826033314765965</v>
+        <v>0.5414747588948912</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4611611316188527</v>
+        <v>0.06444043426593506</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5123381164218322</v>
+        <v>0.9271607776832285</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.4753042804157843</v>
+        <v>-0.5449604894999611</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4325281774482993</v>
+        <v>0.3575294734125756</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-7.527602923798092e-05</v>
+        <v>-6.820099493063133e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3766396159593539</v>
+        <v>0.4222843654331052</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.434196313148904</v>
+        <v>-2.159363489608296</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07580609619942426</v>
+        <v>0.1102908427064577</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3482357307854047</v>
+        <v>-0.278122881916233</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2519238075126025</v>
+        <v>0.3463058393675209</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4111475532329006</v>
+        <v>-0.492669575292777</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06876808146402061</v>
+        <v>0.02378154764551474</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4604415227885273</v>
+        <v>-0.5432777569768309</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05104031885402102</v>
+        <v>0.01737207906651219</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3025210215932158</v>
+        <v>-0.4926492850474768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.403673962594119</v>
+        <v>0.1545027016663944</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3688767082077209</v>
+        <v>0.3355445004241746</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02313008155746434</v>
+        <v>0.02836342713363994</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004956032147020584</v>
+        <v>0.0004670247289745901</v>
       </c>
       <c r="C8" t="n">
-        <v>2.048678656305808e-24</v>
+        <v>1.373909098347425e-22</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0110337522555465</v>
+        <v>0.008200592908846241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02285860638664503</v>
+        <v>0.08442982548730271</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05570191778117247</v>
+        <v>-0.02776052578806375</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6896969281381389</v>
+        <v>0.840130861599643</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7218068175223683</v>
+        <v>0.7040270864217795</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001847037913594352</v>
+        <v>0.0001679031023065939</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2422572864252552</v>
+        <v>0.2392491740901495</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3290005088721756</v>
+        <v>0.3187890678350218</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.976736696974571e-05</v>
+        <v>-5.751599130122963e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02306031762440382</v>
+        <v>0.02914020145558388</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.969676998583049e-08</v>
+        <v>3.261806483308257e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6072705732352863</v>
+        <v>0.3864676780209205</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06147966743773477</v>
+        <v>0.08325500322347341</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2735036360410272</v>
+        <v>0.1315065534140689</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08818104360840416</v>
+        <v>0.09288494865455722</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0202237012038923</v>
+        <v>0.01320413505456238</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.044543617947546</v>
+        <v>2.733378532734427</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06206732246178352</v>
+        <v>0.08559781849252343</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001114530818774984</v>
+        <v>-9.800983758419958e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8866616385144381</v>
+        <v>0.989892477183686</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.007754960982268007</v>
+        <v>0.005546906838992027</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3758097632738472</v>
+        <v>0.5199189364137724</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.5973436466656138</v>
+        <v>0.02459255816993187</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4036733642616891</v>
+        <v>0.9718048345841296</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.8859318127791284</v>
+        <v>-0.7992712906056556</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1345930104228031</v>
+        <v>0.1804295733093215</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-3.52385943163782e-05</v>
+        <v>-9.111424288775767e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6813871346457669</v>
+        <v>0.2857720759429552</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.429638131525265</v>
+        <v>-2.020913354870587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2874123657147133</v>
+        <v>0.1378920421403306</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1821657535085485</v>
+        <v>-0.1794336035801048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.527657953816298</v>
+        <v>0.542435443624903</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5667938801478892</v>
+        <v>-0.5937136380028366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007479958601537411</v>
+        <v>0.006068101096910695</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5868144530593437</v>
+        <v>-0.6656258795353752</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008213591550520717</v>
+        <v>0.003434318489429348</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4730973328723695</v>
+        <v>-0.3618572938759647</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1739588587354508</v>
+        <v>0.3259110668894802</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2689496014664134</v>
+        <v>0.2440350206693444</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06084447348022937</v>
+        <v>0.1026455503655068</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000503455079262557</v>
+        <v>0.0004953043199933975</v>
       </c>
       <c r="C8" t="n">
-        <v>1.724125043334128e-24</v>
+        <v>2.757726403329914e-24</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009658352888739384</v>
+        <v>0.007885100186449678</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0433064283147316</v>
+        <v>0.1017268316199765</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.003373548864950807</v>
+        <v>0.02080339450482897</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9807060312293191</v>
+        <v>0.8818645358394595</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7426108333712415</v>
+        <v>0.8071547941804649</v>
       </c>
       <c r="C11" t="n">
-        <v>9.834972563997084e-05</v>
+        <v>2.23254738144128e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3396872639712822</v>
+        <v>0.4061213027011265</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1649107120520222</v>
+        <v>0.0970106058053314</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.745433776844194e-05</v>
+        <v>-6.148569647666958e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06667570473463127</v>
+        <v>0.01713776358189368</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.726942689305031e-08</v>
+        <v>3.024637743815934e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4667099619996129</v>
+        <v>0.4155584989722556</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08059829968486361</v>
+        <v>0.05431052308237673</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1475449649682966</v>
+        <v>0.3342831138607431</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09058680126587468</v>
+        <v>0.1007579114444548</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01599454325986562</v>
+        <v>0.007953493567117819</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.176099569835099</v>
+        <v>3.523801875156328</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1721874671893908</v>
+        <v>0.03352628088505523</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.004038686523331656</v>
+        <v>-0.001550833267047775</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6038809965634735</v>
+        <v>0.845470673099288</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0002618671855670747</v>
+        <v>0.00530274822988766</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9756349829305506</v>
+        <v>0.5435750628687864</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.3130649088860759</v>
+        <v>-0.09634636336493564</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6598262535933841</v>
+        <v>0.8935811953997363</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.5399596246026134</v>
+        <v>-0.602630604262978</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3693455926970799</v>
+        <v>0.3236104326718711</v>
       </c>
     </row>
     <row r="22">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-8.643868015841693e-05</v>
+        <v>-9.807933674256128e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3124330501008007</v>
+        <v>0.249791088539011</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.877655056468392</v>
+        <v>-1.178373066594765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1671104464561788</v>
+        <v>0.3823472628568064</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1447858272141659</v>
+        <v>-0.09181450176359961</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6199852797382804</v>
+        <v>0.7505208295131672</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6478018954151689</v>
+        <v>-0.548946817533949</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002239749626528839</v>
+        <v>0.009241622122223276</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6885730546707608</v>
+        <v>-0.6056429073697904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002023454822399027</v>
+        <v>0.006060587043302</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5643827553412174</v>
+        <v>-0.6255840473928107</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1086962213132844</v>
+        <v>0.08601945498947093</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2079121480287399</v>
+        <v>0.2379531083679602</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1452288502302808</v>
+        <v>0.09627422978581843</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005169140915022094</v>
+        <v>0.0005119628910234267</v>
       </c>
       <c r="C8" t="n">
-        <v>6.744086437023988e-26</v>
+        <v>7.887979651084136e-26</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008124697309495259</v>
+        <v>0.01036405689300028</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09511475526114091</v>
+        <v>0.02954749160790647</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.006181356713449681</v>
+        <v>0.01446414360611688</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9645329356987019</v>
+        <v>0.9159643859097777</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7502498052264595</v>
+        <v>0.7238318835656338</v>
       </c>
       <c r="C11" t="n">
-        <v>7.263800442079774e-05</v>
+        <v>0.0001320673530951421</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2536160102978213</v>
+        <v>0.3082049634635689</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2979438727563593</v>
+        <v>0.2035963896633561</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.343845910403365e-05</v>
+        <v>-6.046916227730993e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001958589070349496</v>
+        <v>0.02011887639335472</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.449844122191327e-08</v>
+        <v>2.528001956974572e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09764579304414087</v>
+        <v>0.5007982590784144</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07419771485002566</v>
+        <v>0.07160843791950881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1832008098980895</v>
+        <v>0.1965682944265018</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3120,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09977827352799561</v>
+        <v>0.0945295217046021</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008351207004440827</v>
+        <v>0.01253482277780087</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.646538909077957</v>
+        <v>1.867084789483389</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1107201725067525</v>
+        <v>0.2477763463857218</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005118683056984746</v>
+        <v>-0.001708725492705014</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5104457361499242</v>
+        <v>0.8257734289959249</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004275233217679694</v>
+        <v>-0.002190405525447509</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6238574691182726</v>
+        <v>0.79876842294547</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4922289373382698</v>
+        <v>-0.2458945111086652</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4928745756288094</v>
+        <v>0.7278707585960826</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.6052005801357648</v>
+        <v>-0.4735391428424001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3208294633264996</v>
+        <v>0.4253155054057021</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-7.350580342751398e-05</v>
+        <v>-9.288947264120512e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3891105228886533</v>
+        <v>0.2704325250512095</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Düsseldorf.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Düsseldorf.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,270 +466,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.385898063531405</v>
+        <v>-2.42089864173914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3073096722335156</v>
+        <v>0.06474290116546459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1584599417156271</v>
+        <v>0.4493661160594965</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5919352540141923</v>
+        <v>1.433221072134006e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6580971270274607</v>
+        <v>0.000556756577470184</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002171930471472003</v>
+        <v>2.456714246630445e-31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6749189857023818</v>
+        <v>0.00823452541829236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002664354366214172</v>
+        <v>0.07648705533669808</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4862898337478547</v>
+        <v>0.03021800502045035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1581563418058686</v>
+        <v>0.8245754608192768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2352082917204368</v>
+        <v>0.5332006193751133</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1054625787558913</v>
+        <v>0.004700209249562134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005111064802268111</v>
+        <v>0.2394188547601659</v>
       </c>
       <c r="C8" t="n">
-        <v>3.238756878011389e-25</v>
+        <v>0.3154309894330485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005734763217979026</v>
+        <v>-4.436984590909258e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.231032936422585</v>
+        <v>0.05606589986376279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05192160763171172</v>
+        <v>3.30515481043375e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7063353320743004</v>
+        <v>0.3769300389251856</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6031550696599838</v>
+        <v>0.04734579767059274</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001586334684263136</v>
+        <v>0.3878782557263053</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.29383376281674</v>
+        <v>0.1150965290888033</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2277837317626863</v>
+        <v>0.003088413018830538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.082462901902752e-05</v>
+        <v>2.0007968779603</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05053944129298563</v>
+        <v>0.2256459542460504</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.092671780336692e-08</v>
+        <v>-0.00389497192859517</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2839547409145917</v>
+        <v>0.6160252100295749</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05266871209748795</v>
+        <v>0.003355231458754489</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3451817344068016</v>
+        <v>0.6953296997122757</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1089616787371011</v>
+        <v>-0.08198940541357971</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005153384214858454</v>
+        <v>0.9078941001859708</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.007897702492762</v>
+        <v>-0.5208541383556861</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2261894145951587</v>
+        <v>0.3798907593062999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.004227338806563671</v>
+        <v>-7.602215894893026e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5889829825857615</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.002655523809901014</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7589210337680647</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.03899441428300512</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9566400111385462</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.6207525718228769</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2997534492512512</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-9.714450968661278e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.257992868976099</v>
+        <v>0.3717950740778015</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,270 +723,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.72073673386981</v>
+        <v>-2.649133080894499</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2036447927650922</v>
+        <v>0.04301798647231647</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.05895545774152331</v>
+        <v>0.3910022842172884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8378362895098794</v>
+        <v>1.544610657433776e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5147595545448761</v>
+        <v>0.0005329253628789932</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01493527834010783</v>
+        <v>8.660611531079362e-30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6516183379322129</v>
+        <v>0.01109704195679261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003262192654090459</v>
+        <v>0.01807789368786799</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5002954428015263</v>
+        <v>0.01272300757463951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1501122834887444</v>
+        <v>0.9259022952295636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1932341848175694</v>
+        <v>0.5622242298476794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1735956781485594</v>
+        <v>0.002933243652008207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000495974646630567</v>
+        <v>0.152534189623009</v>
       </c>
       <c r="C8" t="n">
-        <v>1.144101378237518e-24</v>
+        <v>0.5281251736566852</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009271987604353479</v>
+        <v>-4.819828070430779e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05445629315417076</v>
+        <v>0.03911486550179145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02575645153571864</v>
+        <v>2.876895496867317e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8518912276789096</v>
+        <v>0.4416622615293813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5993596804683301</v>
+        <v>0.07133241281200949</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001716322290725389</v>
+        <v>0.193684817358505</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1674286621596619</v>
+        <v>0.1075590994641689</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4973926155061761</v>
+        <v>0.005566189227665531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.461279168369184e-05</v>
+        <v>2.64504734992738</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03658679070350362</v>
+        <v>0.109354301555443</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.561390515920484e-08</v>
+        <v>-0.005782297747617812</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3507763727947272</v>
+        <v>0.4532111903299809</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07333603880530508</v>
+        <v>0.005556234446665554</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1893619854256897</v>
+        <v>0.5179915993108515</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1034680096280342</v>
+        <v>0.184702995828593</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007646213447134936</v>
+        <v>0.7939488341678878</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.66197128501451</v>
+        <v>-0.6666875657253324</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1085718001512893</v>
+        <v>0.2598711901069681</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006358642135598268</v>
+        <v>-6.831030457106849e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4119717137629295</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.00495219449879467</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5678592854814178</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.195458093755523</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7844275500265823</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.7867755207826936</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1870887548255168</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-8.219028905941083e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3333912973139247</v>
+        <v>0.418270789873299</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,270 +980,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.33102235227104</v>
+        <v>-2.261494079424077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3196458290938976</v>
+        <v>0.08059465700755687</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02747724359139685</v>
+        <v>0.4625403771282853</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9244382044921509</v>
+        <v>1.959770956889337e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5881733279704743</v>
+        <v>0.0005489760616425207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005419626871352314</v>
+        <v>2.784308947664342e-31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5814011102234685</v>
+        <v>0.01041436203499761</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008640641927540656</v>
+        <v>0.02604986716589527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3948794501912248</v>
+        <v>0.001583833066394246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2518723895190288</v>
+        <v>0.9907173867670298</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2300083447393188</v>
+        <v>0.6714283379629803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1059549360686682</v>
+        <v>0.0002946690526548913</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005094717473462389</v>
+        <v>0.3016241805123918</v>
       </c>
       <c r="C8" t="n">
-        <v>1.022540928523669e-25</v>
+        <v>0.2019731109214598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008618661622063015</v>
+        <v>-6.774357371892277e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07240804362222128</v>
+        <v>0.004415237236439027</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01782682093015049</v>
+        <v>3.121618950706254e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8966320492683516</v>
+        <v>0.403281877991218</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7036409559708782</v>
+        <v>0.03310653787354755</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001667806275227475</v>
+        <v>0.5391429642591505</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3207715734171722</v>
+        <v>0.1027787842685536</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1819582305350088</v>
+        <v>0.006497266268145644</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.872225978156393e-05</v>
+        <v>1.357651917815259</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003143850002803277</v>
+        <v>0.4012156659660844</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.981959586159331e-08</v>
+        <v>-0.003278032404071514</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2961661488759997</v>
+        <v>0.6690449954014295</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04247067600166225</v>
+        <v>2.685107661633212e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4386777586614637</v>
+        <v>0.9974783545275904</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09878541210522128</v>
+        <v>0.08169425300467327</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008854638304452246</v>
+        <v>0.9070908597038969</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.431884617739856</v>
+        <v>-0.06809208656758609</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3776772217714708</v>
+        <v>0.9086205505806912</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.003672466414853022</v>
+        <v>-2.638120873835456e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6342419016033525</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0004929016116539195</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.954085994326915</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1737635625319351</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8061252678760136</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.1650987541960899</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7822867345552706</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-4.481828737078012e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5994531137723111</v>
+        <v>0.7558641038250009</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,270 +1237,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9760611861879011</v>
+        <v>-1.720806031330189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4682618026514753</v>
+        <v>0.1847227342427077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2587733597684467</v>
+        <v>0.4561640896413879</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3824145480275066</v>
+        <v>8.871267573160476e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4172425171197252</v>
+        <v>0.000537288645089972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0546120747173387</v>
+        <v>6.001110861648414e-30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5095998719410046</v>
+        <v>0.01017346152454325</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02466211707434343</v>
+        <v>0.02752525848191148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3355647610286263</v>
+        <v>-0.04146219024030297</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3575642206997794</v>
+        <v>0.761413567752222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3408745472060833</v>
+        <v>0.6199071212722794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02636463542510667</v>
+        <v>0.0008391257999290775</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005083872530350968</v>
+        <v>0.2091395550359026</v>
       </c>
       <c r="C8" t="n">
-        <v>1.014440004065091e-25</v>
+        <v>0.3732774667553347</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008028950482138019</v>
+        <v>-4.116471460610062e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0904541500472175</v>
+        <v>0.07433386364507358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03002047937690401</v>
+        <v>1.329613971337588e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8274830299273328</v>
+        <v>0.7143333628411372</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6696138449732231</v>
+        <v>0.02657182093277509</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003586138847544068</v>
+        <v>0.6207395389366748</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2514748556032073</v>
+        <v>0.1029781326259168</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2933885168816552</v>
+        <v>0.00599628836607616</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.789244196422021e-05</v>
+        <v>2.019326382222387</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06283203658282675</v>
+        <v>0.2125664138296905</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.997557512053734e-08</v>
+        <v>-0.006121626501409671</v>
       </c>
       <c r="C14" t="n">
-        <v>0.589326431769281</v>
+        <v>0.4189671549647515</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03204402043584937</v>
+        <v>-0.001969562085624133</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5574554123976135</v>
+        <v>0.8172181011570289</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0986683827317943</v>
+        <v>-0.3795900374181547</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008487315355504219</v>
+        <v>0.5880456531332716</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.99485304540244</v>
+        <v>-0.178028175818593</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2196316778768014</v>
+        <v>0.7643951974489993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006787538296717381</v>
+        <v>-3.296889481172543e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3731461915883839</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.002824516226869781</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7424356801171128</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.3504490251912071</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6204839069585327</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.2526138871323216</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.6724822117128936</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-4.520285229278334e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5909318019442554</v>
+        <v>0.6933844438613093</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,270 +1494,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.684405569018512</v>
+        <v>-2.652890619383319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2114534950462043</v>
+        <v>0.04173857549184909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09822469999399909</v>
+        <v>0.4392815015334017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7452368233015945</v>
+        <v>4.186072739150759e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6097852170840092</v>
+        <v>0.0005341070262705627</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00489404106769202</v>
+        <v>3.694355067587492e-29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6143673715878983</v>
+        <v>0.0127456541490103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00664881409548603</v>
+        <v>0.006937742037715545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4532951545924789</v>
+        <v>0.0248137587885287</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2040729417709015</v>
+        <v>0.8565418942600909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2299311741903254</v>
+        <v>0.6344561619016369</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1263482564715797</v>
+        <v>0.001017593889853169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004913117641773527</v>
+        <v>0.1610574861032368</v>
       </c>
       <c r="C8" t="n">
-        <v>1.500865562294552e-23</v>
+        <v>0.5123505195628704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01085444069902781</v>
+        <v>-4.727146901655838e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02529910719176467</v>
+        <v>0.0417753967912952</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04681322963610052</v>
+        <v>-4.460831948590251e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7353625383767353</v>
+        <v>0.9028439830262446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6913202390267184</v>
+        <v>0.02360231927291612</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003897680721754161</v>
+        <v>0.6677435181359861</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2014674841507138</v>
+        <v>0.1066397203218862</v>
       </c>
       <c r="C12" t="n">
-        <v>0.421172859339109</v>
+        <v>0.005080585063769082</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.375518951764262e-05</v>
+        <v>2.616124613292577</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03809500094140237</v>
+        <v>0.1064011785875935</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.897246297890211e-09</v>
+        <v>-0.009080415862642787</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9594505574895388</v>
+        <v>0.2352202845660322</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02779051182778626</v>
+        <v>0.006110633446358587</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6198895221265127</v>
+        <v>0.4779003376275166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1021328105728342</v>
+        <v>0.08330206960589866</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007296746927331088</v>
+        <v>0.9057862131488525</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.660459398378445</v>
+        <v>-0.6297872563091046</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1022939658315801</v>
+        <v>0.2892014020473761</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.009487790428231571</v>
+        <v>2.842909321774276e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2180372375271596</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.005363528651820103</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5368778715837876</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1027476677450949</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8851381645962645</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.7294378738157119</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2241195600528169</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-1.308724573058042e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8775610450816189</v>
+        <v>0.9731259998317793</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,270 +1751,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.715196034323341</v>
+        <v>-2.581156832713797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.196387273818959</v>
+        <v>0.04462710636432923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1772944723404469</v>
+        <v>0.4160413178793479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5354314824246558</v>
+        <v>1.237330856668298e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5281246789949524</v>
+        <v>0.0005442892826869916</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01196968868959979</v>
+        <v>5.38323180856887e-31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6176421535242675</v>
+        <v>0.0102252586717747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005046743923929189</v>
+        <v>0.02624209945207212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2864172322650856</v>
+        <v>-0.03074938569910017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4148069029641144</v>
+        <v>0.8207126730348673</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.246077395026097</v>
+        <v>0.645455828182753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08348487118875753</v>
+        <v>0.0005450661068118041</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000507276057970832</v>
+        <v>0.2683043368229172</v>
       </c>
       <c r="C8" t="n">
-        <v>1.186459471673652e-25</v>
+        <v>0.2547520031664666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00821349302230445</v>
+        <v>-4.519262348969478e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08226635552550306</v>
+        <v>0.05199946940571475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02060951615265066</v>
+        <v>1.000572732654828e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8803500343207223</v>
+        <v>0.7866673605502073</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7057198089873986</v>
+        <v>0.04570486879889545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001905226919381959</v>
+        <v>0.3977764295135403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3134597256819833</v>
+        <v>0.09123867867761755</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1923557923091055</v>
+        <v>0.01403419451479606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.27018006268677e-05</v>
+        <v>1.81213422946088</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04243977546295</v>
+        <v>0.257119513805762</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.783291547079295e-08</v>
+        <v>-0.004790010767412455</v>
       </c>
       <c r="C14" t="n">
-        <v>0.636246456288174</v>
+        <v>0.526037181756312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05114382661548864</v>
+        <v>0.00575785350064608</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3523564790923945</v>
+        <v>0.494099160878201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08541151300603433</v>
+        <v>0.008434796861079298</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02149422464970972</v>
+        <v>0.9903434930592239</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.813315562151124</v>
+        <v>-0.4307301483795631</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2582682949596101</v>
+        <v>0.4640327093407636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005344226186974549</v>
+        <v>-5.202818070542916e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4824175666446301</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.005184695124044494</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5414747588948912</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.06444043426593506</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9271607776832285</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.5449604894999611</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.3575294734125756</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-6.820099493063133e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4222843654331052</v>
+        <v>0.5377762615927093</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,270 +2008,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.159363489608296</v>
+        <v>-3.034357248062923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1102908427064577</v>
+        <v>0.01966279235672535</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.278122881916233</v>
+        <v>0.4645819233243946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3463058393675209</v>
+        <v>2.658394292875582e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.492669575292777</v>
+        <v>0.0005015310627430533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02378154764551474</v>
+        <v>3.222239326172946e-27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5432777569768309</v>
+        <v>0.01050444707438349</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01737207906651219</v>
+        <v>0.02280324029960564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4926492850474768</v>
+        <v>-0.03893359393445189</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1545027016663944</v>
+        <v>0.7751244589422513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3355445004241746</v>
+        <v>0.6458289123478869</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02836342713363994</v>
+        <v>0.0004891024831376455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004670247289745901</v>
+        <v>0.2044114875964777</v>
       </c>
       <c r="C8" t="n">
-        <v>1.373909098347425e-22</v>
+        <v>0.3857431173747905</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008200592908846241</v>
+        <v>-5.02667718251962e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08442982548730271</v>
+        <v>0.03307914114041646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02776052578806375</v>
+        <v>2.377404591052848e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.840130861599643</v>
+        <v>0.5191797427128497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7040270864217795</v>
+        <v>0.07615182904837015</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001679031023065939</v>
+        <v>0.1602681729629731</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2392491740901495</v>
+        <v>0.1000270945050455</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3187890678350218</v>
+        <v>0.007498047328642769</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.751599130122963e-05</v>
+        <v>2.791178748338804</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02914020145558388</v>
+        <v>0.07831386134734508</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.261806483308257e-08</v>
+        <v>0.0004938706673538497</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3864676780209205</v>
+        <v>0.9486532476263217</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08325500322347341</v>
+        <v>0.006727211592935064</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1315065534140689</v>
+        <v>0.4304787796998394</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.09288494865455722</v>
+        <v>-0.02241484190501053</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01320413505456238</v>
+        <v>0.9739948333497922</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.733378532734427</v>
+        <v>-0.7000133006637551</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08559781849252343</v>
+        <v>0.237178852263622</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-9.800983758419958e-05</v>
+        <v>-6.724264643950044e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.989892477183686</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.005546906838992027</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5199189364137724</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.02459255816993187</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9718048345841296</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.7992712906056556</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1804295733093215</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-9.111424288775767e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2857720759429552</v>
+        <v>0.4274972261474316</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,270 +2265,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.020913354870587</v>
+        <v>-2.969618018634586</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1378920421403306</v>
+        <v>0.02416780697501166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1794336035801048</v>
+        <v>0.4409838780393491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.542435443624903</v>
+        <v>3.867423843921862e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5937136380028366</v>
+        <v>0.0005346212894584057</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006068101096910695</v>
+        <v>1.455046925133964e-29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6656258795353752</v>
+        <v>0.01017739723900989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003434318489429348</v>
+        <v>0.02945193050294702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3618572938759647</v>
+        <v>0.004553830494165943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3259110668894802</v>
+        <v>0.9737481508018763</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2440350206693444</v>
+        <v>0.7556993587311046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1026455503655068</v>
+        <v>6.009799512543531e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004953043199933975</v>
+        <v>0.3720463195761802</v>
       </c>
       <c r="C8" t="n">
-        <v>2.757726403329914e-24</v>
+        <v>0.1202344035365355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007885100186449678</v>
+        <v>-5.306502972172641e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1017268316199765</v>
+        <v>0.02137552014944723</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02080339450482897</v>
+        <v>1.985623528639315e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8818645358394595</v>
+        <v>0.5850696401086497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8071547941804649</v>
+        <v>0.04417360289134805</v>
       </c>
       <c r="C11" t="n">
-        <v>2.23254738144128e-05</v>
+        <v>0.4234822031454863</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4061213027011265</v>
+        <v>0.1071526118093167</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0970106058053314</v>
+        <v>0.004679133993223922</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.148569647666958e-05</v>
+        <v>3.470036668402583</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01713776358189368</v>
+        <v>0.03553275433699218</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.024637743815934e-08</v>
+        <v>-0.0009459893091535441</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4155584989722556</v>
+        <v>0.9046697315469341</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05431052308237673</v>
+        <v>0.005830394184312799</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3342831138607431</v>
+        <v>0.5001870675430944</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1007579114444548</v>
+        <v>-0.1438992462144051</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007953493567117819</v>
+        <v>0.8398816984125207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.523801875156328</v>
+        <v>-0.4727732701151373</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03352628088505523</v>
+        <v>0.4341426188130783</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001550833267047775</v>
+        <v>-7.893790480827162e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.845470673099288</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.00530274822988766</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5435750628687864</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.09634636336493564</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8935811953997363</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.602630604262978</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.3236104326718711</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-9.807933674256128e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.249791088539011</v>
+        <v>0.3506033578166672</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,270 +2522,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.178373066594765</v>
+        <v>-2.103665734832067</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3823472628568064</v>
+        <v>0.1059252015840891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09181450176359961</v>
+        <v>0.4285850878462976</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7505208295131672</v>
+        <v>6.626519955852182e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.548946817533949</v>
+        <v>0.0005529104809172902</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009241622122223276</v>
+        <v>1.99182386561192e-31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6056429073697904</v>
+        <v>0.01235123245186391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006060587043302</v>
+        <v>0.007805412904189451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6255840473928107</v>
+        <v>0.002997681907017335</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08601945498947093</v>
+        <v>0.9824010492082059</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2379531083679602</v>
+        <v>0.6815775050695559</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09627422978581843</v>
+        <v>0.0002793029325212353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005119628910234267</v>
+        <v>0.2869277856080704</v>
       </c>
       <c r="C8" t="n">
-        <v>7.887979651084136e-26</v>
+        <v>0.2280210353095984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01036405689300028</v>
+        <v>-5.254814134982903e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02954749160790647</v>
+        <v>0.023934279659379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01446414360611688</v>
+        <v>1.808110089905662e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9159643859097777</v>
+        <v>0.6225831871718084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7238318835656338</v>
+        <v>0.06304766110452147</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001320673530951421</v>
+        <v>0.2475128482410838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3082049634635689</v>
+        <v>0.09992600188184013</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2035963896633561</v>
+        <v>0.008228496988473333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.046916227730993e-05</v>
+        <v>1.808337859274121</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02011887639335472</v>
+        <v>0.2607855790461741</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.528001956974572e-08</v>
+        <v>-0.001567881861162147</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5007982590784144</v>
+        <v>0.8390656517769234</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07160843791950881</v>
+        <v>-0.001424555329769408</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1965682944265018</v>
+        <v>0.8671210017342962</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0945295217046021</v>
+        <v>-0.2848641622106967</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01253482277780087</v>
+        <v>0.6833420420911882</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.867084789483389</v>
+        <v>-0.3912992338171309</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2477763463857218</v>
+        <v>0.5064545455635516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.001708725492705014</v>
+        <v>-7.080693196823468e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8257734289959249</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.002190405525447509</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.79876842294547</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.2458945111086652</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7278707585960826</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.4735391428424001</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4253155054057021</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-9.288947264120512e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2704325250512095</v>
+        <v>0.3973152340654609</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Düsseldorf.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Düsseldorf.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.42089864173914</v>
+        <v>-2.384669490630538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06474290116546459</v>
+        <v>0.06958027625415494</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4493661160594965</v>
+        <v>0.4492494131797372</v>
       </c>
       <c r="C3" t="n">
-        <v>1.433221072134006e-11</v>
+        <v>1.46011905719081e-11</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000556756577470184</v>
+        <v>0.0005567927548636091</v>
       </c>
       <c r="C4" t="n">
-        <v>2.456714246630445e-31</v>
+        <v>2.404886056959026e-31</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00823452541829236</v>
+        <v>0.008227002793653107</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07648705533669808</v>
+        <v>0.07675651901442439</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03021800502045035</v>
+        <v>0.03057171392944309</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8245754608192768</v>
+        <v>0.8225499264332103</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5332006193751133</v>
+        <v>0.5335618751655747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004700209249562134</v>
+        <v>0.004671057838397922</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2394188547601659</v>
+        <v>0.2400464739807783</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3154309894330485</v>
+        <v>0.3141652320725044</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.436984590909258e-05</v>
+        <v>-0.004437058570822861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05606589986376279</v>
+        <v>0.05606367663650107</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.30515481043375e-08</v>
+        <v>0.0351188303131808</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3769300389251856</v>
+        <v>0.3516155492228391</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04734579767059274</v>
+        <v>0.0505514616961827</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3878782557263053</v>
+        <v>0.3622197470963169</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1150965290888033</v>
+        <v>0.1119376310036999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003088413018830538</v>
+        <v>0.004904894641286334</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.0007968779603</v>
+        <v>0.01993855804228467</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2256459542460504</v>
+        <v>0.2269344465170113</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.00389497192859517</v>
+        <v>-0.003865245335935966</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6160252100295749</v>
+        <v>0.6183508718544179</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003355231458754489</v>
+        <v>0.003013872753736467</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6953296997122757</v>
+        <v>0.7262787019686594</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.08198940541357971</v>
+        <v>-0.0004355962548643837</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9078941001859708</v>
+        <v>0.9513792811000187</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.5208541383556861</v>
+        <v>-0.005169039474493855</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3798907593062999</v>
+        <v>0.3809676076594711</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-7.602215894893026e-05</v>
+        <v>-0.005813019881324416</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3717950740778015</v>
+        <v>0.3335269868937082</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.649133080894499</v>
+        <v>-2.607254701469392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04301798647231647</v>
+        <v>0.04702196822480201</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3910022842172884</v>
+        <v>0.3906597015237791</v>
       </c>
       <c r="C3" t="n">
-        <v>1.544610657433776e-09</v>
+        <v>1.607091267861244e-09</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005329253628789932</v>
+        <v>0.0005330336225305845</v>
       </c>
       <c r="C4" t="n">
-        <v>8.660611531079362e-30</v>
+        <v>8.343843163184255e-30</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01109704195679261</v>
+        <v>0.01109532368400229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01807789368786799</v>
+        <v>0.01809642329877057</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01272300757463951</v>
+        <v>0.0130655175920878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9259022952295636</v>
+        <v>0.9239091332208997</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5622242298476794</v>
+        <v>0.5619972484030565</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002933243652008207</v>
+        <v>0.002943406331163776</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.152534189623009</v>
+        <v>0.1524099113328092</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5281251736566852</v>
+        <v>0.5284436255431461</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.819828070430779e-05</v>
+        <v>-0.004826680253362166</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03911486550179145</v>
+        <v>0.0388384248073008</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.876895496867317e-08</v>
+        <v>0.03141575840452215</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4416622615293813</v>
+        <v>0.404579598720288</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07133241281200949</v>
+        <v>0.07517639656700607</v>
       </c>
       <c r="C11" t="n">
-        <v>0.193684817358505</v>
+        <v>0.175798423461565</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1075590994641689</v>
+        <v>0.1040409520892428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005566189227665531</v>
+        <v>0.008733854982339849</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.64504734992738</v>
+        <v>0.0263225466959339</v>
       </c>
       <c r="C13" t="n">
-        <v>0.109354301555443</v>
+        <v>0.1108935432348129</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.005782297747617812</v>
+        <v>-0.005712820965861632</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4532111903299809</v>
+        <v>0.4582260846567388</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005556234446665554</v>
+        <v>0.005168968010270809</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5179915993108515</v>
+        <v>0.5496039768063197</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.184702995828593</v>
+        <v>0.002261426807328825</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7939488341678878</v>
+        <v>0.7512049274859094</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.6666875657253324</v>
+        <v>-0.006666153661091738</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2598711901069681</v>
+        <v>0.2572557987796864</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.831030457106849e-05</v>
+        <v>-0.005427470037099616</v>
       </c>
       <c r="C18" t="n">
-        <v>0.418270789873299</v>
+        <v>0.3614938038007789</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.261494079424077</v>
+        <v>-2.239178465445842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08059465700755687</v>
+        <v>0.08447886826074662</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4625403771282853</v>
+        <v>0.4624198548081498</v>
       </c>
       <c r="C3" t="n">
-        <v>1.959770956889337e-12</v>
+        <v>1.997938778311377e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005489760616425207</v>
+        <v>0.000548936231877105</v>
       </c>
       <c r="C4" t="n">
-        <v>2.784308947664342e-31</v>
+        <v>2.778942434368704e-31</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01041436203499761</v>
+        <v>0.01040045669956034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02604986716589527</v>
+        <v>0.02625033873145671</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001583833066394246</v>
+        <v>0.001536340741500112</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9907173867670298</v>
+        <v>0.9909948879903236</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6714283379629803</v>
+        <v>0.6714628531300906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002946690526548913</v>
+        <v>0.0002941644790346055</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3016241805123918</v>
+        <v>0.3015906732152754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2019731109214598</v>
+        <v>0.2019750481875036</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.774357371892277e-05</v>
+        <v>-0.0067703621666145</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004415237236439027</v>
+        <v>0.004431856821311577</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.121618950706254e-08</v>
+        <v>0.03283802360112202</v>
       </c>
       <c r="C10" t="n">
-        <v>0.403281877991218</v>
+        <v>0.3836293238449464</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03310653787354755</v>
+        <v>0.03531974235178525</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5391429642591505</v>
+        <v>0.5176098915081313</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1027787842685536</v>
+        <v>0.1008912789979621</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006497266268145644</v>
+        <v>0.00904811025751116</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.357651917815259</v>
+        <v>0.01351690116563358</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4012156659660844</v>
+        <v>0.4032009858344434</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.003278032404071514</v>
+        <v>-0.003212061451988306</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6690449954014295</v>
+        <v>0.6749424927785355</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.685107661633212e-05</v>
+        <v>-0.0001663998771722626</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9974783545275904</v>
+        <v>0.9844501861152197</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08169425300467327</v>
+        <v>0.001012066500619684</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9070908597038969</v>
+        <v>0.8859287456701118</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.06809208656758609</v>
+        <v>-0.0007154191554580226</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9086205505806912</v>
+        <v>0.9035592371512312</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.638120873835456e-05</v>
+        <v>-0.002282151156590847</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7558641038250009</v>
+        <v>0.7032835388693894</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.720806031330189</v>
+        <v>-1.689281170842242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1847227342427077</v>
+        <v>0.1940133455894402</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4561640896413879</v>
+        <v>0.4558836790681364</v>
       </c>
       <c r="C3" t="n">
-        <v>8.871267573160476e-12</v>
+        <v>9.203936735247165e-12</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000537288645089972</v>
+        <v>0.0005372982992068205</v>
       </c>
       <c r="C4" t="n">
-        <v>6.001110861648414e-30</v>
+        <v>5.952154695868244e-30</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01017346152454325</v>
+        <v>0.01015897580997578</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02752525848191148</v>
+        <v>0.02773929717954544</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.04146219024030297</v>
+        <v>-0.04129355186873137</v>
       </c>
       <c r="C6" t="n">
-        <v>0.761413567752222</v>
+        <v>0.7623346134860092</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6199071212722794</v>
+        <v>0.619385774971861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008391257999290775</v>
+        <v>0.0008473248109160568</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2091395550359026</v>
+        <v>0.208790395351057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3732774667553347</v>
+        <v>0.3740667798835808</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.116471460610062e-05</v>
+        <v>-0.004118739606707988</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07433386364507358</v>
+        <v>0.07412405834575193</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.329613971337588e-08</v>
+        <v>0.01577573938781383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7143333628411372</v>
+        <v>0.666803504367846</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02657182093277509</v>
+        <v>0.02986925257707348</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6207395389366748</v>
+        <v>0.582753067559779</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1029781326259168</v>
+        <v>0.1002610475081886</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00599628836607616</v>
+        <v>0.008964076574865261</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.019326382222387</v>
+        <v>0.02010384676592654</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2125664138296905</v>
+        <v>0.2144407329678589</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.006121626501409671</v>
+        <v>-0.006015014014078748</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4189671549647515</v>
+        <v>0.4265666467818707</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001969562085624133</v>
+        <v>-0.00224652106174171</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8172181011570289</v>
+        <v>0.7930057039188922</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3795900374181547</v>
+        <v>-0.003505810167632596</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5880456531332716</v>
+        <v>0.6199449474774488</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.178028175818593</v>
+        <v>-0.001855068328424005</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7643951974489993</v>
+        <v>0.7536264160814765</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.296889481172543e-05</v>
+        <v>-0.002958095132883449</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6933844438613093</v>
+        <v>0.6162843581032498</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.652890619383319</v>
+        <v>-2.616611107487715</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04173857549184909</v>
+        <v>0.04516685568792259</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4392815015334017</v>
+        <v>0.4390656440811633</v>
       </c>
       <c r="C3" t="n">
-        <v>4.186072739150759e-11</v>
+        <v>4.314600164581934e-11</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005341070262705627</v>
+        <v>0.0005340982404608951</v>
       </c>
       <c r="C4" t="n">
-        <v>3.694355067587492e-29</v>
+        <v>3.702429835312491e-29</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0127456541490103</v>
+        <v>0.01271323647514532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006937742037715545</v>
+        <v>0.007075202907598967</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0248137587885287</v>
+        <v>0.02472181376925482</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8565418942600909</v>
+        <v>0.8570499668006909</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6344561619016369</v>
+        <v>0.6331519560719941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001017593889853169</v>
+        <v>0.001040670254646559</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1610574861032368</v>
+        <v>0.1604529852103046</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5123505195628704</v>
+        <v>0.5139185795318624</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.727146901655838e-05</v>
+        <v>-0.004723771745874299</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0417753967912952</v>
+        <v>0.04181507107566299</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4.460831948590251e-09</v>
+        <v>-0.0008730366446300787</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9028439830262446</v>
+        <v>0.981099646667834</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02360231927291612</v>
+        <v>0.02809664824375437</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6677435181359861</v>
+        <v>0.6135960761053754</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1066397203218862</v>
+        <v>0.1035440403823457</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005080585063769082</v>
+        <v>0.007837084592074753</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.616124613292577</v>
+        <v>0.02601081313112289</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1064011785875935</v>
+        <v>0.108387634578156</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.009080415862642787</v>
+        <v>-0.008861607272192505</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2352202845660322</v>
+        <v>0.2462436224833098</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006110633446358587</v>
+        <v>0.005812910333192688</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4779003376275166</v>
+        <v>0.5016614388874119</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08330206960589866</v>
+        <v>0.001086777940806789</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9057862131488525</v>
+        <v>0.8783276958592643</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.6297872563091046</v>
+        <v>-0.006501562223774605</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2892014020473761</v>
+        <v>0.2710617486730706</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.842909321774276e-06</v>
+        <v>-0.0008170817207809978</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9731259998317793</v>
+        <v>0.8908587556899807</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.581156832713797</v>
+        <v>-2.551002465128308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04462710636432923</v>
+        <v>0.04776718919021556</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4160413178793479</v>
+        <v>0.4158526612948275</v>
       </c>
       <c r="C3" t="n">
-        <v>1.237330856668298e-10</v>
+        <v>1.267244147611424e-10</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005442892826869916</v>
+        <v>0.0005443650525592009</v>
       </c>
       <c r="C4" t="n">
-        <v>5.38323180856887e-31</v>
+        <v>5.258031062437031e-31</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0102252586717747</v>
+        <v>0.01021450634441628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02624209945207212</v>
+        <v>0.02640398158167845</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03074938569910017</v>
+        <v>-0.03048366779401871</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8207126730348673</v>
+        <v>0.8222202132117712</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.645455828182753</v>
+        <v>0.6453011009605709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005450661068118041</v>
+        <v>0.0005460553216508887</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2683043368229172</v>
+        <v>0.2682383881845605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2547520031664666</v>
+        <v>0.2548224809126505</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.519262348969478e-05</v>
+        <v>-0.004518053893608568</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05199946940571475</v>
+        <v>0.05203752916327794</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.000572732654828e-08</v>
+        <v>0.01193515143043735</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7866673605502073</v>
+        <v>0.7487981051756658</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04570486879889545</v>
+        <v>0.04851584838682704</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3977764295135403</v>
+        <v>0.3750794405671851</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09123867867761755</v>
+        <v>0.08867647241195009</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01403419451479606</v>
+        <v>0.0196785299136365</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.81213422946088</v>
+        <v>0.01806416287271372</v>
       </c>
       <c r="C13" t="n">
-        <v>0.257119513805762</v>
+        <v>0.2584128278368042</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.004790010767412455</v>
+        <v>-0.004739114118099891</v>
       </c>
       <c r="C14" t="n">
-        <v>0.526037181756312</v>
+        <v>0.5300663005990771</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00575785350064608</v>
+        <v>0.005481765846743081</v>
       </c>
       <c r="C15" t="n">
-        <v>0.494099160878201</v>
+        <v>0.5170820270815331</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.008434796861079298</v>
+        <v>0.0003822966807397323</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9903434930592239</v>
+        <v>0.9566135911289625</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4307301483795631</v>
+        <v>-0.004312539328268094</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4640327093407636</v>
+        <v>0.4612875565257402</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-5.202818070542916e-05</v>
+        <v>-0.004122660879078604</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5377762615927093</v>
+        <v>0.4888215981943502</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.034357248062923</v>
+        <v>-2.992393739712646</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01966279235672535</v>
+        <v>0.02174330885255462</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4645819233243946</v>
+        <v>0.4644614953631722</v>
       </c>
       <c r="C3" t="n">
-        <v>2.658394292875582e-12</v>
+        <v>2.723230930742568e-12</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005015310627430533</v>
+        <v>0.0005016353951877146</v>
       </c>
       <c r="C4" t="n">
-        <v>3.222239326172946e-27</v>
+        <v>3.134648498704026e-27</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01050444707438349</v>
+        <v>0.01050143209584756</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02280324029960564</v>
+        <v>0.02284275228384568</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.03893359393445189</v>
+        <v>-0.03850877968462086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7751244589422513</v>
+        <v>0.777500096975559</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6458289123478869</v>
+        <v>0.6455707790331775</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004891024831376455</v>
+        <v>0.0004912367763988486</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2044114875964777</v>
+        <v>0.2041934815888983</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3857431173747905</v>
+        <v>0.3862463391624019</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.02667718251962e-05</v>
+        <v>-0.005020460352051267</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03307914114041646</v>
+        <v>0.03326462397997053</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.377404591052848e-08</v>
+        <v>0.02659759611187635</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5191797427128497</v>
+        <v>0.4745883674406808</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07615182904837015</v>
+        <v>0.08029969122364825</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1602681729629731</v>
+        <v>0.1434498980001595</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1000270945050455</v>
+        <v>0.09635801730905609</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007498047328642769</v>
+        <v>0.01183337967543729</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.791178748338804</v>
+        <v>0.02785530467351921</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07831386134734508</v>
+        <v>0.07873416916300022</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0004938706673538497</v>
+        <v>0.0005938531136626547</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9486532476263217</v>
+        <v>0.9381980024291077</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006727211592935064</v>
+        <v>0.006335074319590988</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4304787796998394</v>
+        <v>0.4599261276260351</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02241484190501053</v>
+        <v>0.0001730756338102736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9739948333497922</v>
+        <v>0.9800655731839848</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.7000133006637551</v>
+        <v>-0.007034629143454309</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237178852263622</v>
+        <v>0.2325792211769324</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.724264643950044e-05</v>
+        <v>-0.005440589746232644</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4274972261474316</v>
+        <v>0.3620162791409171</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.969618018634586</v>
+        <v>-2.929442747093736</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02416780697501166</v>
+        <v>0.02647273307274034</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4409838780393491</v>
+        <v>0.4407640907103104</v>
       </c>
       <c r="C3" t="n">
-        <v>3.867423843921862e-11</v>
+        <v>3.985488236427224e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005346212894584057</v>
+        <v>0.0005347550032729016</v>
       </c>
       <c r="C4" t="n">
-        <v>1.455046925133964e-29</v>
+        <v>1.401221572518282e-29</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01017739723900989</v>
+        <v>0.01017683782506754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02945193050294702</v>
+        <v>0.0294634036880188</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004553830494165943</v>
+        <v>0.005140649998154136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9737481508018763</v>
+        <v>0.9703670351566167</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7556993587311046</v>
+        <v>0.7554315144290589</v>
       </c>
       <c r="C7" t="n">
-        <v>6.009799512543531e-05</v>
+        <v>6.032653332295977e-05</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3720463195761802</v>
+        <v>0.3717426276806166</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1202344035365355</v>
+        <v>0.1205324596137647</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.306502972172641e-05</v>
+        <v>-0.005308528713764794</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02137552014944723</v>
+        <v>0.02132271508932519</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.985623528639315e-08</v>
+        <v>0.02245659108253546</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5850696401086497</v>
+        <v>0.5401461147553764</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04417360289134805</v>
+        <v>0.04814039228320956</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4234822031454863</v>
+        <v>0.3885536035511172</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1071526118093167</v>
+        <v>0.1035284485157272</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004679133993223922</v>
+        <v>0.007536897148012622</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.470036668402583</v>
+        <v>0.03463161771831585</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03553275433699218</v>
+        <v>0.03576014712516448</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0009459893091535441</v>
+        <v>-0.0008727958365423186</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9046697315469341</v>
+        <v>0.9119144453128155</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.005830394184312799</v>
+        <v>0.005440686285479966</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5001870675430944</v>
+        <v>0.5310477121173116</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1438992462144051</v>
+        <v>-0.0009967685375239137</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8398816984125207</v>
+        <v>0.8895849703604699</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4727732701151373</v>
+        <v>-0.004715933675120315</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4341426188130783</v>
+        <v>0.4328345726070704</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-7.893790480827162e-05</v>
+        <v>-0.006165589276747208</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3506033578166672</v>
+        <v>0.3013563282126718</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.103665734832067</v>
+        <v>-2.056135438599953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1059252015840891</v>
+        <v>0.1148218741930404</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4285850878462976</v>
+        <v>0.4281689052187314</v>
       </c>
       <c r="C3" t="n">
-        <v>6.626519955852182e-11</v>
+        <v>6.998094243343211e-11</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005529104809172902</v>
+        <v>0.0005530491869148439</v>
       </c>
       <c r="C4" t="n">
-        <v>1.99182386561192e-31</v>
+        <v>1.927269980654348e-31</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01235123245186391</v>
+        <v>0.01233501108354873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007805412904189451</v>
+        <v>0.007886888952179354</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002997681907017335</v>
+        <v>0.003069378490699569</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9824010492082059</v>
+        <v>0.9819782553216162</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6815775050695559</v>
+        <v>0.6814936977624116</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002793029325212353</v>
+        <v>0.000279247059105565</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2869277856080704</v>
+        <v>0.2866005115504532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2280210353095984</v>
+        <v>0.2285207066473224</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.254814134982903e-05</v>
+        <v>-0.005253343145065131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.023934279659379</v>
+        <v>0.02394505125364318</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.808110089905662e-08</v>
+        <v>0.02162132095091697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6225831871718084</v>
+        <v>0.559437430857102</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06304766110452147</v>
+        <v>0.06804002717934338</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2475128482410838</v>
+        <v>0.2173151015634008</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09992600188184013</v>
+        <v>0.09560330349086485</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008228496988473333</v>
+        <v>0.01340656337874139</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.808337859274121</v>
+        <v>0.01799644491299406</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2607855790461741</v>
+        <v>0.2627608518015618</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.001567881861162147</v>
+        <v>-0.001428002877180653</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8390656517769234</v>
+        <v>0.853137718789005</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001424555329769408</v>
+        <v>-0.001857679170167063</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8671210017342962</v>
+        <v>0.8279515852947952</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2848641622106967</v>
+        <v>-0.002379238435206121</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6833420420911882</v>
+        <v>0.7353059220887967</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3912992338171309</v>
+        <v>-0.003967134687317266</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5064545455635516</v>
+        <v>0.4983734097852259</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-7.080693196823468e-05</v>
+        <v>-0.005873412786616421</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3973152340654609</v>
+        <v>0.3191830416992695</v>
       </c>
     </row>
   </sheetData>
